--- a/Doc/ExcelConfig/Datas/__tables__.xlsx
+++ b/Doc/ExcelConfig/Datas/__tables__.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="151">
   <si>
     <t>##</t>
   </si>
@@ -441,6 +441,24 @@
   </si>
   <si>
     <t>dota/PoolGroupConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Dota.WearableConfig</t>
+  </si>
+  <si>
+    <t>WearableConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/WearableConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Dota.BuildingLevelUpConfig</t>
+  </si>
+  <si>
+    <t>BuildingLevelUpConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/BuildingLevelUpConfig.xlsx</t>
   </si>
   <si>
     <t>Dota.RoundBoardConfig</t>
@@ -1394,10 +1412,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2048,6 +2066,40 @@
         <v>126</v>
       </c>
     </row>
+    <row r="40" customFormat="1" spans="2:8">
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>144</v>
+      </c>
+      <c r="H40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="2:8">
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2068,30 +2120,30 @@
   <sheetData>
     <row r="29" spans="4:7">
       <c r="D29" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="4:10">
       <c r="D33" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="J33" t="s">
         <v>126</v>

--- a/Doc/ExcelConfig/Datas/__tables__.xlsx
+++ b/Doc/ExcelConfig/Datas/__tables__.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="154">
   <si>
     <t>##</t>
   </si>
@@ -468,6 +468,15 @@
   </si>
   <si>
     <t>dota/RoundBoardConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Dota.RoundBoardChallengeConfig</t>
+  </si>
+  <si>
+    <t>RoundBoardChallengeConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/RoundBoardChallengeConfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1412,10 +1421,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2097,6 +2106,40 @@
         <v>147</v>
       </c>
       <c r="H41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="2:8">
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="2:8">
+      <c r="B43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>153</v>
+      </c>
+      <c r="H43" t="s">
         <v>126</v>
       </c>
     </row>

--- a/Doc/ExcelConfig/Datas/__tables__.xlsx
+++ b/Doc/ExcelConfig/Datas/__tables__.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
   <si>
     <t>##</t>
   </si>
@@ -302,24 +302,6 @@
     <t>单位/HeroLevelUpConfig.xlsx</t>
   </si>
   <si>
-    <t>Hero.HeroConfig</t>
-  </si>
-  <si>
-    <t>HeroConfigRecord</t>
-  </si>
-  <si>
-    <t>单位/HeroConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Hero.HeroTalentConfig</t>
-  </si>
-  <si>
-    <t>HeroTalentConfigRecord</t>
-  </si>
-  <si>
-    <t>单位/HeroTalentConfig.xlsx</t>
-  </si>
-  <si>
     <t>Season.SeasonConfig</t>
   </si>
   <si>
@@ -386,6 +368,15 @@
     <t>one</t>
   </si>
   <si>
+    <t>Dota.BuildingLevelUpConfig</t>
+  </si>
+  <si>
+    <t>BuildingLevelUpConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/BuildingLevelUpConfig.xlsx</t>
+  </si>
+  <si>
     <t>Dota.BuffEffectConfig</t>
   </si>
   <si>
@@ -450,15 +441,6 @@
   </si>
   <si>
     <t>dota/WearableConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Dota.BuildingLevelUpConfig</t>
-  </si>
-  <si>
-    <t>BuildingLevelUpConfigRecord</t>
-  </si>
-  <si>
-    <t>dota/BuildingLevelUpConfig.xlsx</t>
   </si>
   <si>
     <t>Dota.RoundBoardConfig</t>
@@ -489,7 +471,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +482,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -950,10 +939,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,34 +951,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,104 +987,108 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1421,10 +1411,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="$A25:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1433,7 +1423,7 @@
     <col min="3" max="3" width="51" customWidth="1"/>
     <col min="4" max="4" width="52.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="35.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="38.0833333333333" customWidth="1"/>
     <col min="7" max="7" width="26.75" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
@@ -1479,7 +1469,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1517,7 +1507,7 @@
       <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1546,7 +1536,7 @@
       <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1858,7 +1848,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="2:5">
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
         <v>98</v>
       </c>
@@ -1928,7 +1918,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:7">
       <c r="B31" t="s">
         <v>113</v>
       </c>
@@ -1941,56 +1931,61 @@
       <c r="E31" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="G31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="15.5" spans="2:7">
       <c r="B32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
+        <v>119</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" t="s">
         <v>122</v>
+      </c>
+      <c r="H33" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" t="s">
         <v>123</v>
       </c>
-      <c r="C34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>125</v>
-      </c>
-      <c r="H34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+    </row>
+    <row r="35" customFormat="1" spans="2:8">
       <c r="B35" t="s">
         <v>127</v>
       </c>
@@ -2004,7 +1999,7 @@
         <v>129</v>
       </c>
       <c r="H35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="2:8">
@@ -2021,7 +2016,7 @@
         <v>132</v>
       </c>
       <c r="H36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="2:8">
@@ -2038,7 +2033,7 @@
         <v>135</v>
       </c>
       <c r="H37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="2:8">
@@ -2055,7 +2050,7 @@
         <v>138</v>
       </c>
       <c r="H38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="2:8">
@@ -2072,7 +2067,7 @@
         <v>141</v>
       </c>
       <c r="H39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="2:8">
@@ -2089,7 +2084,7 @@
         <v>144</v>
       </c>
       <c r="H40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="2:8">
@@ -2106,41 +2101,7 @@
         <v>147</v>
       </c>
       <c r="H41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="2:8">
-      <c r="B42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>150</v>
-      </c>
-      <c r="H42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="2:8">
-      <c r="B43" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>153</v>
-      </c>
-      <c r="H43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2163,33 +2124,33 @@
   <sheetData>
     <row r="29" spans="4:7">
       <c r="D29" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="4:10">
       <c r="D33" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__tables__.xlsx
+++ b/Doc/ExcelConfig/Datas/__tables__.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="145">
   <si>
     <t>##</t>
   </si>
@@ -389,22 +389,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>Dota.PopulationConfig</t>
-  </si>
-  <si>
-    <t>PopulationConfigRecord</t>
-  </si>
-  <si>
-    <t>dota/PopulationConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Dota.TechConfig</t>
-  </si>
-  <si>
-    <t>TechConfigRecord</t>
-  </si>
-  <si>
-    <t>dota/TechConfig.xlsx</t>
+    <t>Dota.CourierAbilityLevelUpConfig</t>
+  </si>
+  <si>
+    <t>CourierAbilityLevelUpConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/CourierAbilityLevelUpConfig.xlsx</t>
   </si>
   <si>
     <t>Dota.CombinationConfig</t>
@@ -1411,10 +1402,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="$A25:$XFD25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2087,23 +2078,6 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="2:8">
-      <c r="B41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>147</v>
-      </c>
-      <c r="H41" t="s">
-        <v>123</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2124,30 +2098,30 @@
   <sheetData>
     <row r="29" spans="4:7">
       <c r="D29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="4:10">
       <c r="D33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J33" t="s">
         <v>123</v>

--- a/Doc/ExcelConfig/Datas/__tables__.xlsx
+++ b/Doc/ExcelConfig/Datas/__tables__.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
   <si>
     <t>##</t>
   </si>
@@ -423,6 +423,15 @@
   </si>
   <si>
     <t>dota/PoolGroupConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Dota.PublicShopConfig</t>
+  </si>
+  <si>
+    <t>PublicShopConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/PublicShopConfig.xlsx</t>
   </si>
   <si>
     <t>Dota.WearableConfig</t>
@@ -1402,10 +1411,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="$A38:$XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2078,6 +2087,23 @@
         <v>123</v>
       </c>
     </row>
+    <row r="41" customFormat="1" spans="2:8">
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2098,30 +2124,30 @@
   <sheetData>
     <row r="29" spans="4:7">
       <c r="D29" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="4:10">
       <c r="D33" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J33" t="s">
         <v>123</v>

--- a/Doc/ExcelConfig/Datas/__tables__.xlsx
+++ b/Doc/ExcelConfig/Datas/__tables__.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="151">
   <si>
     <t>##</t>
   </si>
@@ -459,6 +459,15 @@
   </si>
   <si>
     <t>dota/RoundBoardChallengeConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Dota.RoundEnemyPoolConfig</t>
+  </si>
+  <si>
+    <t>RoundEnemyPoolConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/RoundEnemyPoolConfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1411,10 +1420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="$A38:$XFD38"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2102,6 +2111,20 @@
       </c>
       <c r="H41" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="2:5">
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__tables__.xlsx
+++ b/Doc/ExcelConfig/Datas/__tables__.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="157">
   <si>
     <t>##</t>
   </si>
@@ -329,15 +329,6 @@
     <t>抽奖/DrawTreasureConfig.xlsx</t>
   </si>
   <si>
-    <t>Task.TaskConfig</t>
-  </si>
-  <si>
-    <t>TaskConfigRecord</t>
-  </si>
-  <si>
-    <t>任务/TaskConfig.xlsx</t>
-  </si>
-  <si>
     <t>Achievement.AchievementConfig</t>
   </si>
   <si>
@@ -375,6 +366,33 @@
   </si>
   <si>
     <t>dota/BuildingLevelUpConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Dota.BattlePassChargeConfig</t>
+  </si>
+  <si>
+    <t>BattlePassChargeConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/BattlePassChargeConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Dota.BattlePassTaskConfig</t>
+  </si>
+  <si>
+    <t>BattlePassTaskConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/BattlePassTaskConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Dota.BattlePassLevelUpConfig</t>
+  </si>
+  <si>
+    <t>BattlePassLevelUpConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/BattlePassLevelUpConfig.xlsx</t>
   </si>
   <si>
     <t>Dota.BuffEffectConfig</t>
@@ -1420,10 +1438,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="$A32:$XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1913,7 +1931,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:7">
       <c r="B30" t="s">
         <v>110</v>
       </c>
@@ -1926,23 +1944,25 @@
       <c r="E30" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="G30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="15.5" spans="2:7">
       <c r="B31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" t="s">
         <v>116</v>
       </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" customFormat="1" ht="15.5" spans="2:7">
       <c r="B32" t="s">
@@ -1960,7 +1980,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>120</v>
       </c>
@@ -1973,45 +1993,40 @@
       <c r="E33" t="s">
         <v>122</v>
       </c>
-      <c r="H33" t="s">
+    </row>
+    <row r="34" customFormat="1" ht="15.5" spans="2:7">
+      <c r="B34" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>124</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
         <v>125</v>
       </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
         <v>126</v>
       </c>
-      <c r="H34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="2:8">
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>127</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>128</v>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>129</v>
       </c>
-      <c r="H35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="2:8">
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" t="s">
         <v>130</v>
       </c>
@@ -2025,7 +2040,7 @@
         <v>132</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="2:8">
@@ -2042,7 +2057,7 @@
         <v>135</v>
       </c>
       <c r="H37" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="2:8">
@@ -2059,7 +2074,7 @@
         <v>138</v>
       </c>
       <c r="H38" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="2:8">
@@ -2076,7 +2091,7 @@
         <v>141</v>
       </c>
       <c r="H39" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="2:8">
@@ -2093,7 +2108,7 @@
         <v>144</v>
       </c>
       <c r="H40" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="2:8">
@@ -2110,10 +2125,10 @@
         <v>147</v>
       </c>
       <c r="H41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="2:5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="2:8">
       <c r="B42" t="s">
         <v>148</v>
       </c>
@@ -2125,6 +2140,40 @@
       </c>
       <c r="E42" t="s">
         <v>150</v>
+      </c>
+      <c r="H42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="2:8">
+      <c r="B43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>153</v>
+      </c>
+      <c r="H43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="2:5">
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2147,33 +2196,33 @@
   <sheetData>
     <row r="29" spans="4:7">
       <c r="D29" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="4:10">
       <c r="D33" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="J33" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__tables__.xlsx
+++ b/Doc/ExcelConfig/Datas/__tables__.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="160">
   <si>
     <t>##</t>
   </si>
@@ -393,6 +393,15 @@
   </si>
   <si>
     <t>dota/BattlePassLevelUpConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Dota.InfoPassLevelUpConfig</t>
+  </si>
+  <si>
+    <t>InfoPassLevelUpConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/InfoPassLevelUpConfig.xlsx</t>
   </si>
   <si>
     <t>Dota.BuffEffectConfig</t>
@@ -1438,10 +1447,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="$A32:$XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2009,7 +2018,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" customFormat="1" ht="15.5" spans="2:7">
       <c r="B35" t="s">
         <v>126</v>
       </c>
@@ -2022,28 +2031,26 @@
       <c r="E35" t="s">
         <v>128</v>
       </c>
-      <c r="H35" t="s">
-        <v>129</v>
-      </c>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
         <v>130</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
         <v>131</v>
       </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="H36" t="s">
         <v>132</v>
       </c>
-      <c r="H36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="2:8">
+    </row>
+    <row r="37" spans="2:8">
       <c r="B37" t="s">
         <v>133</v>
       </c>
@@ -2057,7 +2064,7 @@
         <v>135</v>
       </c>
       <c r="H37" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="2:8">
@@ -2074,7 +2081,7 @@
         <v>138</v>
       </c>
       <c r="H38" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="2:8">
@@ -2091,7 +2098,7 @@
         <v>141</v>
       </c>
       <c r="H39" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="2:8">
@@ -2108,7 +2115,7 @@
         <v>144</v>
       </c>
       <c r="H40" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="2:8">
@@ -2125,7 +2132,7 @@
         <v>147</v>
       </c>
       <c r="H41" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="2:8">
@@ -2142,7 +2149,7 @@
         <v>150</v>
       </c>
       <c r="H42" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="2:8">
@@ -2159,10 +2166,10 @@
         <v>153</v>
       </c>
       <c r="H43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="2:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="2:8">
       <c r="B44" t="s">
         <v>154</v>
       </c>
@@ -2174,6 +2181,23 @@
       </c>
       <c r="E44" t="s">
         <v>156</v>
+      </c>
+      <c r="H44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="2:5">
+      <c r="B45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2196,33 +2220,33 @@
   <sheetData>
     <row r="29" spans="4:7">
       <c r="D29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="4:10">
       <c r="D33" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J33" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__tables__.xlsx
+++ b/Doc/ExcelConfig/Datas/__tables__.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="154">
   <si>
     <t>##</t>
   </si>
@@ -167,205 +167,187 @@
     <t>商店/ShopConfig.xlsx</t>
   </si>
   <si>
-    <t>Prop.PropConfig</t>
+    <t>Activity.ActivityConfig</t>
+  </si>
+  <si>
+    <t>ActivityConfigRecord</t>
+  </si>
+  <si>
+    <t>活动/ActivityConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Activity.TActivityMonthLogin</t>
+  </si>
+  <si>
+    <t>TActivityMonthLoginRecord</t>
+  </si>
+  <si>
+    <t>活动/TActivityMonthLogin.xlsx</t>
+  </si>
+  <si>
+    <t>Activity.TActivitySevenDayLogin</t>
+  </si>
+  <si>
+    <t>TActivitySevenDayLoginRecord</t>
+  </si>
+  <si>
+    <t>活动/TActivitySevenDayLogin.xlsx</t>
+  </si>
+  <si>
+    <t>Activity.TActivityDailyOnlinePrize</t>
+  </si>
+  <si>
+    <t>TActivityDailyOnlinePrizeRecord</t>
+  </si>
+  <si>
+    <t>活动/TActivityDailyOnlinePrize.xlsx</t>
+  </si>
+  <si>
+    <t>Activity.TActivityInvestMetaStone</t>
+  </si>
+  <si>
+    <t>TActivityInvestMetaStoneRecord</t>
+  </si>
+  <si>
+    <t>活动/TActivityInvestMetaStone.xlsx</t>
+  </si>
+  <si>
+    <t>Activity.TActivityTotalGainMetaStone</t>
+  </si>
+  <si>
+    <t>TActivityTotalGainMetaStoneRecord</t>
+  </si>
+  <si>
+    <t>活动/TActivityTotalGainMetaStone.xlsx</t>
+  </si>
+  <si>
+    <t>Activity.TActivityTotalOnlineTime</t>
+  </si>
+  <si>
+    <t>TActivityTotalOnlineTimeRecord</t>
+  </si>
+  <si>
+    <t>活动/TActivityTotalOnlineTime.xlsx</t>
+  </si>
+  <si>
+    <t>Activity.TActivityTotalSpendMetaStone</t>
+  </si>
+  <si>
+    <t>TActivityTotalSpendMetaStoneRecord</t>
+  </si>
+  <si>
+    <t>活动/TActivityTotalSpendMetaStone.xlsx</t>
+  </si>
+  <si>
+    <t>Activity.TActivityGiftCommond</t>
+  </si>
+  <si>
+    <t>TActivityGiftCommondRecord</t>
+  </si>
+  <si>
+    <t>活动/TActivityGiftCommond.xlsx</t>
+  </si>
+  <si>
+    <t>Activity.TActivityMentorshipTree</t>
+  </si>
+  <si>
+    <t>TActivityMentorshipTreeRecord</t>
+  </si>
+  <si>
+    <t>活动/TActivityMentorshipTree.xlsx</t>
+  </si>
+  <si>
+    <t>Season.SeasonConfig</t>
+  </si>
+  <si>
+    <t>SeasonConfigRecord</t>
+  </si>
+  <si>
+    <t>赛季/SeasonConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Rank.RankPrizeConfig</t>
+  </si>
+  <si>
+    <t>RankPrizeConfigRecord</t>
+  </si>
+  <si>
+    <t>排行/RankPrizeConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Draw.DrawTreasureConfig</t>
+  </si>
+  <si>
+    <t>DrawTreasureConfigRecord</t>
+  </si>
+  <si>
+    <t>抽奖/DrawTreasureConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Achievement.AchievementConfig</t>
+  </si>
+  <si>
+    <t>AchievementConfigRecord</t>
+  </si>
+  <si>
+    <t>成就/AchievementConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Title.TitleConfig</t>
+  </si>
+  <si>
+    <t>TitleConfigRecord</t>
+  </si>
+  <si>
+    <t>称号/TitleConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Glob.GlobalSetting</t>
+  </si>
+  <si>
+    <t>GlobalSettingRecord</t>
+  </si>
+  <si>
+    <t>全局/GlobalSetting.xlsx</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>Dota.BuildingLevelUpConfig</t>
+  </si>
+  <si>
+    <t>BuildingLevelUpConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/BuildingLevelUpConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Dota.BuildingLevelUpExpConfig</t>
+  </si>
+  <si>
+    <t>BuildingLevelUpExpConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/BuildingLevelUpExpConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Dota.PropConfig</t>
   </si>
   <si>
     <t>PropConfigRecord</t>
   </si>
   <si>
-    <t>属性/PropConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Prop.RandomPropConfig</t>
-  </si>
-  <si>
-    <t>RandomPropConfigRecord</t>
-  </si>
-  <si>
-    <t>属性/RandomPropConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Activity.ActivityConfig</t>
-  </si>
-  <si>
-    <t>ActivityConfigRecord</t>
-  </si>
-  <si>
-    <t>活动/ActivityConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Activity.TActivityMonthLogin</t>
-  </si>
-  <si>
-    <t>TActivityMonthLoginRecord</t>
-  </si>
-  <si>
-    <t>活动/TActivityMonthLogin.xlsx</t>
-  </si>
-  <si>
-    <t>Activity.TActivitySevenDayLogin</t>
-  </si>
-  <si>
-    <t>TActivitySevenDayLoginRecord</t>
-  </si>
-  <si>
-    <t>活动/TActivitySevenDayLogin.xlsx</t>
-  </si>
-  <si>
-    <t>Activity.TActivityBattlePass</t>
-  </si>
-  <si>
-    <t>TActivityBattlePassRecord</t>
-  </si>
-  <si>
-    <t>活动/TActivityBattlePass.xlsx</t>
-  </si>
-  <si>
-    <t>Activity.TActivityHeroRecordLevel</t>
-  </si>
-  <si>
-    <t>TActivityHeroRecordLevelRecord</t>
-  </si>
-  <si>
-    <t>活动/TActivityHeroRecordLevel.xlsx</t>
-  </si>
-  <si>
-    <t>Activity.TActivityDailyOnlinePrize</t>
-  </si>
-  <si>
-    <t>TActivityDailyOnlinePrizeRecord</t>
-  </si>
-  <si>
-    <t>活动/TActivityDailyOnlinePrize.xlsx</t>
-  </si>
-  <si>
-    <t>Activity.TActivityInvestMetaStone</t>
-  </si>
-  <si>
-    <t>TActivityInvestMetaStoneRecord</t>
-  </si>
-  <si>
-    <t>活动/TActivityInvestMetaStone.xlsx</t>
-  </si>
-  <si>
-    <t>Activity.TActivityTotalGainMetaStone</t>
-  </si>
-  <si>
-    <t>TActivityTotalGainMetaStoneRecord</t>
-  </si>
-  <si>
-    <t>活动/TActivityTotalGainMetaStone.xlsx</t>
-  </si>
-  <si>
-    <t>Activity.TActivityTotalOnlineTime</t>
-  </si>
-  <si>
-    <t>TActivityTotalOnlineTimeRecord</t>
-  </si>
-  <si>
-    <t>活动/TActivityTotalOnlineTime.xlsx</t>
-  </si>
-  <si>
-    <t>Activity.TActivityTotalSpendMetaStone</t>
-  </si>
-  <si>
-    <t>TActivityTotalSpendMetaStoneRecord</t>
-  </si>
-  <si>
-    <t>活动/TActivityTotalSpendMetaStone.xlsx</t>
-  </si>
-  <si>
-    <t>Activity.TActivityGiftCommond</t>
-  </si>
-  <si>
-    <t>TActivityGiftCommondRecord</t>
-  </si>
-  <si>
-    <t>活动/TActivityGiftCommond.xlsx</t>
-  </si>
-  <si>
-    <t>Activity.TActivityMentorshipTree</t>
-  </si>
-  <si>
-    <t>TActivityMentorshipTreeRecord</t>
-  </si>
-  <si>
-    <t>活动/TActivityMentorshipTree.xlsx</t>
-  </si>
-  <si>
-    <t>Hero.HeroLevelUpConfig</t>
-  </si>
-  <si>
-    <t>HeroLevelUpConfigRecord</t>
-  </si>
-  <si>
-    <t>单位/HeroLevelUpConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Season.SeasonConfig</t>
-  </si>
-  <si>
-    <t>SeasonConfigRecord</t>
-  </si>
-  <si>
-    <t>赛季/SeasonConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Rank.RankPrizeConfig</t>
-  </si>
-  <si>
-    <t>RankPrizeConfigRecord</t>
-  </si>
-  <si>
-    <t>排行/RankPrizeConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Draw.DrawTreasureConfig</t>
-  </si>
-  <si>
-    <t>DrawTreasureConfigRecord</t>
-  </si>
-  <si>
-    <t>抽奖/DrawTreasureConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Achievement.AchievementConfig</t>
-  </si>
-  <si>
-    <t>AchievementConfigRecord</t>
-  </si>
-  <si>
-    <t>成就/AchievementConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Title.TitleConfig</t>
-  </si>
-  <si>
-    <t>TitleConfigRecord</t>
-  </si>
-  <si>
-    <t>称号/TitleConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Glob.GlobalSetting</t>
-  </si>
-  <si>
-    <t>GlobalSettingRecord</t>
-  </si>
-  <si>
-    <t>全局/GlobalSetting.xlsx</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>Dota.BuildingLevelUpConfig</t>
-  </si>
-  <si>
-    <t>BuildingLevelUpConfigRecord</t>
-  </si>
-  <si>
-    <t>dota/BuildingLevelUpConfig.xlsx</t>
+    <t>dota/PropConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Dota.PropRandomConfig</t>
+  </si>
+  <si>
+    <t>PropRandomConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/PropRandomConfig.xlsx</t>
   </si>
   <si>
     <t>Dota.BattlePassChargeConfig</t>
@@ -1447,10 +1429,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1870,7 +1852,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:7">
       <c r="B25" t="s">
         <v>95</v>
       </c>
@@ -1883,81 +1865,91 @@
       <c r="E25" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="G25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="15.5" spans="2:7">
       <c r="B26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
+        <v>101</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" customFormat="1" ht="15.5" spans="2:7">
       <c r="B27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
+        <v>104</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" customFormat="1" ht="15.5" spans="2:7">
       <c r="B28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
+        <v>107</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" customFormat="1" ht="15.5" spans="2:7">
       <c r="B29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
+        <v>110</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" customFormat="1" ht="15.5" spans="2:7">
       <c r="B30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="31" customFormat="1" ht="15.5" spans="2:7">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
         <v>114</v>
       </c>
@@ -1970,8 +1962,6 @@
       <c r="E31" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
     </row>
     <row r="32" customFormat="1" ht="15.5" spans="2:7">
       <c r="B32" t="s">
@@ -1986,10 +1976,9 @@
       <c r="E32" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" customFormat="1" ht="15.5" spans="2:7">
       <c r="B33" t="s">
         <v>120</v>
       </c>
@@ -2002,8 +1991,9 @@
       <c r="E33" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="34" customFormat="1" ht="15.5" spans="2:7">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" t="s">
         <v>123</v>
       </c>
@@ -2016,41 +2006,45 @@
       <c r="E34" t="s">
         <v>125</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" customFormat="1" ht="15.5" spans="2:7">
+      <c r="H34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" t="s">
         <v>126</v>
       </c>
-      <c r="C35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:8">
+    </row>
+    <row r="36" customFormat="1" spans="2:8">
       <c r="B36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="2:8">
       <c r="B37" t="s">
         <v>133</v>
       </c>
@@ -2064,7 +2058,7 @@
         <v>135</v>
       </c>
       <c r="H37" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="2:8">
@@ -2081,7 +2075,7 @@
         <v>138</v>
       </c>
       <c r="H38" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="2:8">
@@ -2098,7 +2092,7 @@
         <v>141</v>
       </c>
       <c r="H39" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="2:8">
@@ -2115,7 +2109,7 @@
         <v>144</v>
       </c>
       <c r="H40" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="2:8">
@@ -2132,7 +2126,7 @@
         <v>147</v>
       </c>
       <c r="H41" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="2:8">
@@ -2149,10 +2143,10 @@
         <v>150</v>
       </c>
       <c r="H42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="2:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="2:5">
       <c r="B43" t="s">
         <v>151</v>
       </c>
@@ -2164,40 +2158,6 @@
       </c>
       <c r="E43" t="s">
         <v>153</v>
-      </c>
-      <c r="H43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="2:8">
-      <c r="B44" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="2:5">
-      <c r="B45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2220,33 +2180,33 @@
   <sheetData>
     <row r="29" spans="4:7">
       <c r="D29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="4:10">
       <c r="D33" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J33" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__tables__.xlsx
+++ b/Doc/ExcelConfig/Datas/__tables__.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="155">
   <si>
     <t>##</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>活动/ActivityConfig.xlsx</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t>Activity.TActivityMonthLogin</t>
@@ -1431,8 +1434,8 @@
   <sheetPr/>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="$A20:$XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1642,7 +1645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:8">
       <c r="B10" t="s">
         <v>50</v>
       </c>
@@ -1655,509 +1658,539 @@
       <c r="E10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="15.5" spans="2:7">
       <c r="B26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" customFormat="1" ht="15.5" spans="2:7">
       <c r="B27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" customFormat="1" ht="15.5" spans="2:7">
       <c r="B28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" customFormat="1" ht="15.5" spans="2:7">
       <c r="B29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" customFormat="1" ht="15.5" spans="2:7">
       <c r="B30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="15.5" spans="2:7">
       <c r="B32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" customFormat="1" ht="15.5" spans="2:7">
       <c r="B33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" t="s">
         <v>127</v>
-      </c>
-      <c r="C35" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="2:8">
       <c r="B36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="2:8">
       <c r="B37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="2:8">
       <c r="B38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="2:8">
       <c r="B39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="2:8">
       <c r="B40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="2:8">
       <c r="B41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="2:8">
       <c r="B42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="2:5">
       <c r="B43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2180,33 +2213,33 @@
   <sheetData>
     <row r="29" spans="4:7">
       <c r="D29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="4:10">
       <c r="D33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__tables__.xlsx
+++ b/Doc/ExcelConfig/Datas/__tables__.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="158">
   <si>
     <t>##</t>
   </si>
@@ -380,6 +380,15 @@
     <t>dota/BattlePassLevelUpConfig.xlsx</t>
   </si>
   <si>
+    <t>Dota.WearableConfig</t>
+  </si>
+  <si>
+    <t>WearableConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/WearableConfig.xlsx</t>
+  </si>
+  <si>
     <t>Dota.InfoPassLevelUpConfig</t>
   </si>
   <si>
@@ -446,15 +455,6 @@
     <t>dota/PublicShopConfig.xlsx</t>
   </si>
   <si>
-    <t>Dota.WearableConfig</t>
-  </si>
-  <si>
-    <t>WearableConfigRecord</t>
-  </si>
-  <si>
-    <t>dota/WearableConfig.xlsx</t>
-  </si>
-  <si>
     <t>Dota.RoundBoardConfig</t>
   </si>
   <si>
@@ -480,6 +480,15 @@
   </si>
   <si>
     <t>dota/RoundEnemyPoolConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Dota.RankBattleScoreExpConfig</t>
+  </si>
+  <si>
+    <t>RankBattleScoreExpConfigRecord</t>
+  </si>
+  <si>
+    <t>dota/RankBattleScoreExpConfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1432,10 +1441,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2011,7 +2020,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" customFormat="1" ht="15.5" spans="2:7">
+    <row r="33" customFormat="1" spans="2:5">
       <c r="B33" t="s">
         <v>121</v>
       </c>
@@ -2024,9 +2033,8 @@
       <c r="E33" t="s">
         <v>123</v>
       </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:8">
+    </row>
+    <row r="34" customFormat="1" ht="15.5" spans="2:7">
       <c r="B34" t="s">
         <v>124</v>
       </c>
@@ -2039,28 +2047,26 @@
       <c r="E34" t="s">
         <v>126</v>
       </c>
-      <c r="H34" t="s">
-        <v>127</v>
-      </c>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
         <v>128</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>129</v>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>130</v>
       </c>
-      <c r="H35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="2:8">
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" t="s">
         <v>131</v>
       </c>
@@ -2074,7 +2080,7 @@
         <v>133</v>
       </c>
       <c r="H36" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="2:8">
@@ -2091,7 +2097,7 @@
         <v>136</v>
       </c>
       <c r="H37" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="2:8">
@@ -2108,7 +2114,7 @@
         <v>139</v>
       </c>
       <c r="H38" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="2:8">
@@ -2125,7 +2131,7 @@
         <v>142</v>
       </c>
       <c r="H39" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="2:8">
@@ -2142,7 +2148,7 @@
         <v>145</v>
       </c>
       <c r="H40" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="2:8">
@@ -2159,7 +2165,7 @@
         <v>148</v>
       </c>
       <c r="H41" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="2:8">
@@ -2176,7 +2182,7 @@
         <v>151</v>
       </c>
       <c r="H42" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="2:5">
@@ -2191,6 +2197,23 @@
       </c>
       <c r="E43" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="2:8">
+      <c r="B44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>157</v>
+      </c>
+      <c r="H44" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +2262,7 @@
         <v>148</v>
       </c>
       <c r="J33" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
